--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1141310.912975805</v>
+        <v>1168608.798462064</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.0964539</v>
+        <v>5562152.400446148</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.15266807</v>
+        <v>4028287.523710872</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7401567.271073119</v>
+        <v>7825676.492038745</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -674,7 +676,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>276.7976673059995</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>186.3842502410962</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +834,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>54.68688746169127</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -905,16 +907,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>404.4320794037411</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>163.250481327608</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>29.0673606283497</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,10 +1147,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>151.3617171365088</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>55.09423975761489</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,16 +1375,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>16.55447303929008</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.59999704964329</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>165.4216953850582</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>312.8370222859379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,10 +1903,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>369.2659961340943</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>22.88282737275503</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>271.0770354214525</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>102.3703427217041</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>71.31137123306053</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>31.42227043795242</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2381,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>393.553766680214</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>65.42520756919065</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>92.64737864792517</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>106.9706214097036</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>65.42520756919065</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2795,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2843,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>85.25432609134931</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3016,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3037,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>266.2723283900672</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>271.4044086264084</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3269,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3436,13 +3438,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>135.8447834840486</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>91.04473440253275</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3515,10 +3517,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3661,7 +3663,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>137.8797272855246</v>
       </c>
       <c r="V40" t="n">
-        <v>144.2018606410491</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3740,10 +3742,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>156.2360449367548</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3910,7 +3912,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>161.5901221570366</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.45455053377363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>237.2033710710782</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>102.9265193612803</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4135,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>51.11640775847518</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4198,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1582.279756623514</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="C2" t="n">
-        <v>1582.279756623514</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D2" t="n">
-        <v>1582.279756623514</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E2" t="n">
-        <v>1167.939541140411</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F2" t="n">
-        <v>746.9091290940985</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G2" t="n">
-        <v>338.1808449869307</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>850.932214224331</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L2" t="n">
-        <v>1563.523614036569</v>
+        <v>1040.492788507289</v>
       </c>
       <c r="M2" t="n">
-        <v>2245.17458027019</v>
+        <v>1816.811379499043</v>
       </c>
       <c r="N2" t="n">
-        <v>2245.17458027019</v>
+        <v>2569.992396137661</v>
       </c>
       <c r="O2" t="n">
-        <v>2888.805436687295</v>
+        <v>3213.623252554766</v>
       </c>
       <c r="P2" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>2794.081007170961</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U2" t="n">
-        <v>2794.081007170961</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V2" t="n">
-        <v>2794.081007170961</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W2" t="n">
-        <v>2794.081007170961</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="X2" t="n">
-        <v>2393.437609339914</v>
+        <v>2320.76685787076</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.500936288004</v>
+        <v>2132.49993843531</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>882.8728865263604</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K3" t="n">
-        <v>1338.679142791659</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="L3" t="n">
-        <v>1999.767314710947</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="M3" t="n">
-        <v>2579.517617692877</v>
+        <v>2420.132878330433</v>
       </c>
       <c r="N3" t="n">
-        <v>2579.517617692877</v>
+        <v>2420.132878330433</v>
       </c>
       <c r="O3" t="n">
-        <v>2579.517617692877</v>
+        <v>3124.089968876327</v>
       </c>
       <c r="P3" t="n">
-        <v>2579.517617692877</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q3" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>937.2068711227912</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C4" t="n">
-        <v>766.1134986845077</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D4" t="n">
-        <v>606.6188540074177</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E4" t="n">
-        <v>445.7080388757371</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F4" t="n">
-        <v>281.0769129863284</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G4" t="n">
-        <v>113.8265219118718</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X4" t="n">
-        <v>1349.642276128071</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y4" t="n">
-        <v>1124.906577516836</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1861.143737919971</v>
+        <v>2517.150449389417</v>
       </c>
       <c r="C5" t="n">
-        <v>1451.019147233241</v>
+        <v>2107.025858702687</v>
       </c>
       <c r="D5" t="n">
-        <v>1046.555217326301</v>
+        <v>1702.561928795748</v>
       </c>
       <c r="E5" t="n">
-        <v>632.215001843198</v>
+        <v>1288.221713312645</v>
       </c>
       <c r="F5" t="n">
-        <v>632.215001843198</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G5" t="n">
-        <v>223.4867177360302</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K5" t="n">
-        <v>596.7467427565767</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L5" t="n">
-        <v>596.7467427565767</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M5" t="n">
-        <v>1321.76385814485</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N5" t="n">
-        <v>2038.487731972852</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O5" t="n">
-        <v>2038.487731972852</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="P5" t="n">
-        <v>2567.644429892003</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>2672.30159063637</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V5" t="n">
-        <v>2672.30159063637</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="W5" t="n">
-        <v>2672.30159063637</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="X5" t="n">
-        <v>2672.30159063637</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="Y5" t="n">
-        <v>2271.36491758446</v>
+        <v>2927.371629053907</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L6" t="n">
-        <v>489.5689897796294</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M6" t="n">
-        <v>489.5689897796294</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N6" t="n">
-        <v>489.5689897796294</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O6" t="n">
-        <v>1193.526080325524</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P6" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1147.921091948674</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>976.8277195103904</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>817.3330748333003</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>656.4222597016197</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1587.986138268387</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T7" t="n">
-        <v>1587.986138268387</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U7" t="n">
-        <v>1587.986138268387</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V7" t="n">
-        <v>1587.986138268387</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="W7" t="n">
-        <v>1587.986138268387</v>
+        <v>341.4207496992801</v>
       </c>
       <c r="X7" t="n">
-        <v>1560.356496953953</v>
+        <v>103.0768875589635</v>
       </c>
       <c r="Y7" t="n">
-        <v>1335.620798342718</v>
+        <v>103.0768875589635</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1861.437013140833</v>
+        <v>2034.583562722664</v>
       </c>
       <c r="C8" t="n">
-        <v>1451.312422454103</v>
+        <v>1624.458972035934</v>
       </c>
       <c r="D8" t="n">
-        <v>1046.848492547164</v>
+        <v>1219.995042128995</v>
       </c>
       <c r="E8" t="n">
-        <v>632.5082770640606</v>
+        <v>805.6548266458916</v>
       </c>
       <c r="F8" t="n">
-        <v>211.4778650177482</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>596.7467427565767</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L8" t="n">
-        <v>1309.338142568815</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M8" t="n">
-        <v>1560.714110571482</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N8" t="n">
-        <v>2285.731225959755</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O8" t="n">
-        <v>2929.36208237686</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>2672.30159063637</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V8" t="n">
-        <v>2672.30159063637</v>
+        <v>3630.145114134943</v>
       </c>
       <c r="W8" t="n">
-        <v>2672.30159063637</v>
+        <v>3246.384813270111</v>
       </c>
       <c r="X8" t="n">
-        <v>2271.658192805323</v>
+        <v>2845.741415439064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2271.658192805323</v>
+        <v>2444.804742387154</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L9" t="n">
-        <v>514.3934979128359</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="M9" t="n">
-        <v>514.3934979128359</v>
+        <v>1109.505855484497</v>
       </c>
       <c r="N9" t="n">
-        <v>839.4134544636129</v>
+        <v>1983.163947596115</v>
       </c>
       <c r="O9" t="n">
-        <v>1543.370545009507</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U10" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V10" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W10" t="n">
-        <v>241.0193557949199</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1291.780331924538</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C11" t="n">
-        <v>881.6557412378083</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D11" t="n">
-        <v>881.6557412378083</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E11" t="n">
-        <v>467.315525754705</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="F11" t="n">
-        <v>467.315525754705</v>
+        <v>90.43760716597399</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>596.7467427565767</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L11" t="n">
-        <v>1309.338142568815</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>1309.338142568815</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.574528040604</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O11" t="n">
-        <v>2400.205384457709</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2887.341883336816</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2887.341883336816</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>2887.341883336816</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V11" t="n">
-        <v>2887.341883336816</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W11" t="n">
-        <v>2503.581582471985</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X11" t="n">
-        <v>2102.938184640937</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y11" t="n">
-        <v>1702.001511589028</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M12" t="n">
-        <v>676.1022315638701</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N12" t="n">
-        <v>1401.119346952143</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1180.572778017932</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C14" t="n">
-        <v>1180.572778017932</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D14" t="n">
-        <v>1180.572778017932</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E14" t="n">
-        <v>1180.572778017932</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F14" t="n">
-        <v>864.5757858099139</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G14" t="n">
-        <v>455.8475017027461</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H14" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>58.5872416475372</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>771.1786414597752</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>1031.557412652331</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.574528040604</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O14" t="n">
-        <v>2400.205384457709</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>2314.81403137733</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V14" t="n">
-        <v>1964.976476713811</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W14" t="n">
-        <v>1581.216175848979</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X14" t="n">
-        <v>1180.572778017932</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y14" t="n">
-        <v>1180.572778017932</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>783.60435703581</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1386.688503169273</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5513,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5549,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.13812587521</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N18" t="n">
-        <v>1210.13812587521</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>1914.095216421104</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1109.278667993779</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V19" t="n">
-        <v>835.3929229333004</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W19" t="n">
-        <v>556.3232584421747</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X19" t="n">
-        <v>317.9793963018581</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>549.5615568984836</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>851.989530876386</v>
+        <v>691.8672272829849</v>
       </c>
       <c r="C22" t="n">
-        <v>851.989530876386</v>
+        <v>520.7738548447014</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>361.2792101676114</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>361.2792101676114</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>196.6480842782027</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>196.6480842782027</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5938,22 +5940,22 @@
         <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1364.219138077181</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U22" t="n">
-        <v>1364.219138077181</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V22" t="n">
-        <v>1090.333393016703</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W22" t="n">
-        <v>1090.333393016703</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="X22" t="n">
-        <v>851.989530876386</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="Y22" t="n">
-        <v>851.989530876386</v>
+        <v>879.5669336770293</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2494.579294402201</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2084.454703715471</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1679.990773808531</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1265.650558325428</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>844.6201462791155</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>435.8918621719477</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>124.9833647996657</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6017,22 +6019,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4439.978400477999</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>4090.140845814479</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3706.380544949648</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>3305.7371471186</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2904.80047406669</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3249.132033805963</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C25" t="n">
-        <v>3249.132033805963</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D25" t="n">
-        <v>3249.132033805963</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E25" t="n">
-        <v>3249.132033805963</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F25" t="n">
-        <v>3249.132033805963</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V25" t="n">
-        <v>3594.287766548796</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W25" t="n">
-        <v>3315.218102057671</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X25" t="n">
-        <v>3249.132033805963</v>
+        <v>1197.906964051067</v>
       </c>
       <c r="Y25" t="n">
-        <v>3249.132033805963</v>
+        <v>1104.323753295587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6254,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C27" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D27" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E27" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F27" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G27" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H27" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I27" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S27" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T27" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U27" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V27" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W27" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X27" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y27" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3249.132033805963</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C28" t="n">
-        <v>3249.132033805963</v>
+        <v>521.7002902364676</v>
       </c>
       <c r="D28" t="n">
-        <v>3249.132033805963</v>
+        <v>362.2056455593776</v>
       </c>
       <c r="E28" t="n">
-        <v>3249.132033805963</v>
+        <v>201.2948304276971</v>
       </c>
       <c r="F28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>3868.173511609275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>3594.287766548796</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>3315.218102057671</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X28" t="n">
-        <v>3249.132033805963</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y28" t="n">
-        <v>3249.132033805963</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E29" t="n">
         <v>1320.262653899312</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6542,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1584.839892213121</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1593.281623979807</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T31" t="n">
-        <v>4422.636145507842</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U31" t="n">
-        <v>4336.520664607489</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V31" t="n">
-        <v>4062.634919547011</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W31" t="n">
-        <v>3783.565255055886</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X31" t="n">
-        <v>3545.221392915569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y31" t="n">
-        <v>3320.485694304334</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6683,16 +6685,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6892,7 +6894,7 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>1353.680646442718</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W34" t="n">
         <v>1074.610981951593</v>
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
         <v>1320.262653899312</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>741.8628115185547</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1228.182536368609</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3926.132899060943</v>
+        <v>4164.476761201259</v>
       </c>
       <c r="C37" t="n">
-        <v>3755.039526622659</v>
+        <v>3993.383388762976</v>
       </c>
       <c r="D37" t="n">
-        <v>3595.544881945569</v>
+        <v>3833.888744085886</v>
       </c>
       <c r="E37" t="n">
-        <v>3434.634066813889</v>
+        <v>3672.977928954205</v>
       </c>
       <c r="F37" t="n">
-        <v>3270.00294092448</v>
+        <v>3508.346803064796</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>3341.09641199034</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
         <v>3132.785987910289</v>
@@ -7135,10 +7137,10 @@
         <v>4576.912166206539</v>
       </c>
       <c r="X37" t="n">
-        <v>4338.568304066222</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="Y37" t="n">
-        <v>4113.832605454987</v>
+        <v>4352.176467595304</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.3370701289063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>1339.844446857597</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V40" t="n">
-        <v>1194.186001765628</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W40" t="n">
-        <v>915.1163372745027</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X40" t="n">
-        <v>676.772475134186</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.0367765229507</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1302.686153284121</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C41" t="n">
-        <v>1302.686153284121</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D41" t="n">
-        <v>1302.686153284121</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E41" t="n">
-        <v>888.3459378010175</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F41" t="n">
-        <v>467.315525754705</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>1309.338142568815</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M41" t="n">
-        <v>1309.338142568815</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N41" t="n">
-        <v>1716.017882351039</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O41" t="n">
-        <v>2359.648738768144</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="P41" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>2672.30159063637</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>2672.30159063637</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W41" t="n">
-        <v>2514.487403831567</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X41" t="n">
-        <v>2113.84400600052</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y41" t="n">
-        <v>1712.90733294861</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>514.3934979128359</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L42" t="n">
-        <v>514.3934979128359</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M42" t="n">
-        <v>514.3934979128359</v>
+        <v>2033.587426106451</v>
       </c>
       <c r="N42" t="n">
-        <v>1193.526080325524</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O42" t="n">
-        <v>1193.526080325524</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P42" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>881.9675908584566</v>
+        <v>2975.749268493639</v>
       </c>
       <c r="C43" t="n">
-        <v>710.8742184201731</v>
+        <v>2804.655896055355</v>
       </c>
       <c r="D43" t="n">
-        <v>551.379573743083</v>
+        <v>2645.161251378265</v>
       </c>
       <c r="E43" t="n">
-        <v>390.4687586114026</v>
+        <v>2484.250436246585</v>
       </c>
       <c r="F43" t="n">
-        <v>225.8376327219938</v>
+        <v>2319.619310357176</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.19299859201</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.03178098626</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S43" t="n">
-        <v>1401.594370148297</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T43" t="n">
-        <v>1162.045631125</v>
+        <v>3446.247122341559</v>
       </c>
       <c r="U43" t="n">
-        <v>1162.045631125</v>
+        <v>3163.448974887683</v>
       </c>
       <c r="V43" t="n">
-        <v>1162.045631125</v>
+        <v>3163.448974887683</v>
       </c>
       <c r="W43" t="n">
-        <v>1162.045631125</v>
+        <v>3163.448974887683</v>
       </c>
       <c r="X43" t="n">
-        <v>1162.045631125</v>
+        <v>3163.448974887683</v>
       </c>
       <c r="Y43" t="n">
-        <v>1069.667297252501</v>
+        <v>3163.448974887683</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1717.560831829413</v>
+        <v>1296.470519235758</v>
       </c>
       <c r="C44" t="n">
-        <v>1717.560831829413</v>
+        <v>1296.470519235758</v>
       </c>
       <c r="D44" t="n">
-        <v>1613.594650656403</v>
+        <v>892.0065893288184</v>
       </c>
       <c r="E44" t="n">
-        <v>1199.254435173299</v>
+        <v>892.0065893288184</v>
       </c>
       <c r="F44" t="n">
-        <v>778.224023126987</v>
+        <v>470.976177282506</v>
       </c>
       <c r="G44" t="n">
-        <v>369.4957390198192</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>188.0203049894718</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>726.1798060985113</v>
+        <v>270.9172995859905</v>
       </c>
       <c r="L44" t="n">
-        <v>1438.771205910749</v>
+        <v>983.5086993982285</v>
       </c>
       <c r="M44" t="n">
-        <v>2163.788321299022</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N44" t="n">
-        <v>2888.805436687295</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O44" t="n">
-        <v>2888.805436687295</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V44" t="n">
-        <v>2929.36208237686</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W44" t="n">
-        <v>2929.36208237686</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X44" t="n">
-        <v>2528.718684545813</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y44" t="n">
-        <v>2127.782011493903</v>
+        <v>1536.069883954019</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>707.2063554754692</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L45" t="n">
-        <v>707.2063554754692</v>
+        <v>684.8411284776494</v>
       </c>
       <c r="M45" t="n">
-        <v>707.2063554754692</v>
+        <v>684.8411284776494</v>
       </c>
       <c r="N45" t="n">
-        <v>1193.526080325524</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="O45" t="n">
-        <v>1193.526080325524</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P45" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>442.2241643270721</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>271.1307918887886</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>219.4980567792177</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1502.713419943787</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>1219.915272489911</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>946.0295274294331</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>666.9598629383074</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X46" t="n">
-        <v>666.9598629383074</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y46" t="n">
-        <v>442.2241643270721</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>781.8265539859558</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>529.6250836046478</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8058,25 +8060,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>643.1706503868309</v>
+        <v>846.2776300172815</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8219,25 +8221,25 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>816.8757996737932</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>609.4760590289834</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,22 +8300,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>491.4496229341745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O6" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8459,16 +8461,16 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>347.2053436516589</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>743.321953824879</v>
+        <v>398.9198136730141</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8529,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>381.4963798086763</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>196.176898678467</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8696,16 +8698,16 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>544.6662154755978</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8775,10 +8777,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>681.3167988054204</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8927,16 +8929,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>356.2990842475054</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>509.2990563003282</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -9012,10 +9014,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>676.9459084607529</v>
+        <v>527.9363279870926</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9027,7 +9029,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9966,7 +9968,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10188,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
-        <v>613.6913745331453</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10662,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>544.4254386968355</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10841,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10899,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
@@ -10908,22 +10910,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>268.280820310972</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11066,16 +11068,16 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>503.6999066982595</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>635.7022184829458</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
@@ -11142,22 +11144,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>739.1859008813134</v>
+        <v>140.6860064961202</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>204.0640593554641</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389136</v>
+        <v>288.3297051870488</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>213.002357129085</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>544.4254386968354</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -11394,7 +11396,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22550,7 +22552,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>31.0017450925597</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22598,13 +22600,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>210.5430560802946</v>
       </c>
     </row>
     <row r="3">
@@ -22720,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>93.42449318090664</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>12.38802852210824</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>144.5489310709511</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>156.7553487017543</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,25 +22992,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23033,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>253.2792841295873</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23075,19 +23077,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>291.2449393592692</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300461</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23261,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>388.086528226806</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.32826740419685</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23315,7 +23317,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006473</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>103.9830856399114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23789,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>10.65670172208877</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>140.1019872577596</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>8.893130557884547</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>45.7410379208938</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>165.8418804000044</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>54.06597461814515</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,10 +24259,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>170.5352159497228</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>129.8409629771978</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>56.01419322081109</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24619,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>170.5352159497228</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>194.7158398879878</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>4.874559219806031</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>4.874559219805974</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25157,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>29.73310367966343</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>57.06664624006515</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25597,16 +25599,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>142.0904386938125</v>
       </c>
       <c r="V40" t="n">
-        <v>126.9450269688242</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25682,13 +25684,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>223.6866529194283</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.987765006675431</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25834,13 +25836,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25852,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>131.0337910913493</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>168.9155967967663</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>297.4927712465897</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>106.7832904718439</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>556843.7929140507</v>
+        <v>629866.0521252794</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>556843.7929140509</v>
+        <v>629866.0521252794</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>556843.792914051</v>
+        <v>629866.0521252793</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>556843.7929140509</v>
+        <v>629866.0521252793</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>556843.7929140509</v>
+        <v>629866.0521252794</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>724121.6688377343</v>
+        <v>724121.668837734</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>724121.6688377343</v>
+        <v>724121.668837734</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>724121.6688377343</v>
+        <v>724121.6688377341</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>724121.6688377341</v>
+        <v>724121.6688377343</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>556843.7929140505</v>
+        <v>629866.0521252793</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>556843.792914051</v>
+        <v>629866.0521252794</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>222737.5171656206</v>
+        <v>251946.420850112</v>
       </c>
       <c r="C2" t="n">
-        <v>222737.5171656206</v>
+        <v>251946.4208501119</v>
       </c>
       <c r="D2" t="n">
-        <v>222737.5171656206</v>
+        <v>251946.420850112</v>
       </c>
       <c r="E2" t="n">
-        <v>222737.5171656206</v>
+        <v>251946.4208501119</v>
       </c>
       <c r="F2" t="n">
-        <v>222737.5171656206</v>
+        <v>251946.420850112</v>
       </c>
       <c r="G2" t="n">
         <v>289648.6675350938</v>
       </c>
       <c r="H2" t="n">
-        <v>289648.6675350939</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="I2" t="n">
         <v>289648.6675350938</v>
@@ -26338,22 +26340,22 @@
         <v>289648.6675350938</v>
       </c>
       <c r="K2" t="n">
+        <v>289648.6675350937</v>
+      </c>
+      <c r="L2" t="n">
+        <v>289648.6675350937</v>
+      </c>
+      <c r="M2" t="n">
         <v>289648.6675350939</v>
       </c>
-      <c r="L2" t="n">
-        <v>289648.6675350938</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289648.6675350938</v>
-      </c>
       <c r="N2" t="n">
-        <v>289648.6675350938</v>
+        <v>289648.667535094</v>
       </c>
       <c r="O2" t="n">
-        <v>222737.5171656207</v>
+        <v>251946.420850112</v>
       </c>
       <c r="P2" t="n">
-        <v>222737.5171656206</v>
+        <v>251946.420850112</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.3187768863872</v>
+        <v>622.7246651156233</v>
       </c>
       <c r="C4" t="n">
-        <v>533.3187768863875</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="D4" t="n">
-        <v>533.3187768863875</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="E4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="F4" t="n">
-        <v>533.3187768863875</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="G4" t="n">
         <v>738.1279301446466</v>
@@ -26442,7 +26444,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
         <v>738.1279301446466</v>
@@ -26451,13 +26453,13 @@
         <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="O4" t="n">
-        <v>533.3187768863872</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="P4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101373.8575464892</v>
+        <v>-147126.7425197932</v>
       </c>
       <c r="C6" t="n">
-        <v>144050.294736606</v>
+        <v>161671.9990922505</v>
       </c>
       <c r="D6" t="n">
-        <v>144050.294736606</v>
+        <v>161671.9990922505</v>
       </c>
       <c r="E6" t="n">
-        <v>177677.894736606</v>
+        <v>195299.5990922505</v>
       </c>
       <c r="F6" t="n">
-        <v>177677.894736606</v>
+        <v>195299.5990922506</v>
       </c>
       <c r="G6" t="n">
-        <v>99310.14492796188</v>
+        <v>151141.9330064433</v>
       </c>
       <c r="H6" t="n">
         <v>218045.3293600759</v>
       </c>
       <c r="I6" t="n">
-        <v>218045.3293600759</v>
+        <v>218045.3293600758</v>
       </c>
       <c r="J6" t="n">
-        <v>26432.82618972307</v>
+        <v>-23046.26372766081</v>
       </c>
       <c r="K6" t="n">
-        <v>218045.3293600759</v>
+        <v>218045.3293600758</v>
       </c>
       <c r="L6" t="n">
         <v>218045.3293600758</v>
       </c>
       <c r="M6" t="n">
-        <v>218045.3293600758</v>
+        <v>218045.3293600759</v>
       </c>
       <c r="N6" t="n">
-        <v>218045.3293600759</v>
+        <v>218045.329360076</v>
       </c>
       <c r="O6" t="n">
-        <v>177677.894736606</v>
+        <v>195299.5990922505</v>
       </c>
       <c r="P6" t="n">
-        <v>177677.8947366059</v>
+        <v>195299.5990922506</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>688.5363295289103</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>435.9757203237636</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>585.6063666484134</v>
+        <v>788.713346278864</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,25 +34941,25 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>723.9635089171738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>515.8266957480993</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>435.3350991233254</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O6" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,16 +35181,16 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>253.9151191946135</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>650.1321781990958</v>
+        <v>305.7300380472309</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>328.3029864149263</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>138.425419678467</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,16 +35418,16 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>451.7539247189785</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>623.7525150670029</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>263.00885979046</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>416.3867655437089</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>623.7525150670029</v>
+        <v>474.7429345933426</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36130,7 +36132,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O20" t="n">
         <v>650.1321781990958</v>
@@ -36686,7 +36688,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
-        <v>560.4979811393954</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>491.2320453030855</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37786,16 +37788,16 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>410.7876159416402</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>542.5124428571627</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>685.9925074875634</v>
+        <v>87.49261310237023</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>130.7404680221562</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>199.1933155138316</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>156.8878333182359</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>491.2320453030854</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1168608.798462064</v>
+        <v>1166100.44673615</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446148</v>
+        <v>5562152.400446149</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7825676.492038745</v>
+        <v>7825676.492038746</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>235.168823803877</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>186.3842502410962</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>42.43741174507676</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -898,16 +898,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>404.4320794037411</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -952,16 +952,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>193.2255409256554</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.0673606283497</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>154.3199979017281</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>55.09423975761489</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>137.7630859209035</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1353,13 +1353,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>82.85798684944118</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>16.55447303929008</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.4216953850582</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>186.4750534714318</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>338.1753487462616</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>85.25432609134887</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>297.913296591982</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1900,13 +1900,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>369.2659961340943</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>22.88282737275503</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2061,16 +2061,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3703427217041</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2383,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>393.553766680214</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.64737864792517</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>106.9706214097036</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2797,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2851,10 +2851,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3037,10 +3037,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>271.4044086264084</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944652</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>91.04473440253275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>50.61039643672395</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>137.8797272855246</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>338.1753487462616</v>
+        <v>252.6871036901638</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>161.5901221570366</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.2033710710782</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4030,16 +4030,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>118.7588392363238</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1722.27875877082</v>
+        <v>1125.848704289529</v>
       </c>
       <c r="C2" t="n">
-        <v>1722.27875877082</v>
+        <v>715.7241136027993</v>
       </c>
       <c r="D2" t="n">
-        <v>1317.814828863881</v>
+        <v>311.2601836958598</v>
       </c>
       <c r="E2" t="n">
-        <v>903.4746133807774</v>
+        <v>311.2601836958598</v>
       </c>
       <c r="F2" t="n">
-        <v>482.444201334465</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G2" t="n">
         <v>73.71591722729714</v>
@@ -4330,28 +4330,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K2" t="n">
-        <v>327.9013886950514</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.492788507289</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M2" t="n">
-        <v>1816.811379499043</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N2" t="n">
-        <v>2569.992396137661</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O2" t="n">
-        <v>3213.623252554766</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P2" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q2" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R2" t="n">
         <v>3685.795861364857</v>
@@ -4369,13 +4369,13 @@
         <v>2721.410255701808</v>
       </c>
       <c r="W2" t="n">
-        <v>2721.410255701808</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X2" t="n">
-        <v>2320.76685787076</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y2" t="n">
-        <v>2132.49993843531</v>
+        <v>1536.069883954019</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2318.137507400892</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>2184.142436149837</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>2067.24527836923</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>1946.752462361558</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>1837.792582544062</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>1730.802469858401</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>1660.055256894117</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L3" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M3" t="n">
-        <v>2420.132878330433</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N3" t="n">
-        <v>2420.132878330433</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O3" t="n">
-        <v>3124.089968876327</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P3" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q3" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R3" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>3577.805851479166</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>3418.463987666174</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>3221.113176804393</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>3007.401649797427</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>2794.168481533755</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>2617.842499672648</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>2458.440540036478</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4518,22 +4518,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1603.114813848147</v>
+        <v>1560.248741378373</v>
       </c>
       <c r="U4" t="n">
-        <v>1603.114813848147</v>
+        <v>1277.450593924497</v>
       </c>
       <c r="V4" t="n">
-        <v>1603.114813848147</v>
+        <v>1003.564848864019</v>
       </c>
       <c r="W4" t="n">
-        <v>1603.114813848147</v>
+        <v>724.4951843728934</v>
       </c>
       <c r="X4" t="n">
-        <v>1575.485172533713</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.749473922478</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2517.150449389417</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.025858702687</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="D5" t="n">
-        <v>1702.561928795748</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E5" t="n">
-        <v>1288.221713312645</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F5" t="n">
         <v>879.7044613896738</v>
@@ -4567,28 +4567,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>611.8754183363367</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L5" t="n">
-        <v>1324.466818148575</v>
+        <v>1040.492788507289</v>
       </c>
       <c r="M5" t="n">
-        <v>2100.785409140329</v>
+        <v>1816.811379499043</v>
       </c>
       <c r="N5" t="n">
-        <v>2853.966425778947</v>
+        <v>2569.992396137661</v>
       </c>
       <c r="O5" t="n">
-        <v>2853.966425778947</v>
+        <v>3213.623252554766</v>
       </c>
       <c r="P5" t="n">
-        <v>3364.634854569565</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q5" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
         <v>3685.795861364857</v>
@@ -4600,19 +4600,19 @@
         <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>3328.308302105817</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V5" t="n">
-        <v>3328.308302105817</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W5" t="n">
-        <v>3328.308302105817</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="X5" t="n">
-        <v>3328.308302105817</v>
+        <v>2526.232941635489</v>
       </c>
       <c r="Y5" t="n">
-        <v>2927.371629053907</v>
+        <v>2125.296268583579</v>
       </c>
     </row>
     <row r="6">
@@ -4655,13 +4655,13 @@
         <v>73.71591722729714</v>
       </c>
       <c r="M6" t="n">
-        <v>916.6929979218638</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N6" t="n">
-        <v>1416.248022531903</v>
+        <v>947.374009338915</v>
       </c>
       <c r="O6" t="n">
-        <v>2120.205113077797</v>
+        <v>1651.331099884809</v>
       </c>
       <c r="P6" t="n">
         <v>2120.205113077797</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.71591722729714</v>
+        <v>244.8092896655806</v>
       </c>
       <c r="C7" t="n">
         <v>73.71591722729714</v>
@@ -4755,22 +4755,22 @@
         <v>1416.723045728058</v>
       </c>
       <c r="T7" t="n">
-        <v>1177.17430670476</v>
+        <v>1260.844259968736</v>
       </c>
       <c r="U7" t="n">
-        <v>894.3761592508838</v>
+        <v>1260.844259968736</v>
       </c>
       <c r="V7" t="n">
-        <v>620.4904141904058</v>
+        <v>986.9585149082582</v>
       </c>
       <c r="W7" t="n">
-        <v>341.4207496992801</v>
+        <v>707.8888504171325</v>
       </c>
       <c r="X7" t="n">
-        <v>103.0768875589635</v>
+        <v>469.544988276816</v>
       </c>
       <c r="Y7" t="n">
-        <v>103.0768875589635</v>
+        <v>244.8092896655806</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2034.583562722664</v>
+        <v>2120.935325405591</v>
       </c>
       <c r="C8" t="n">
-        <v>1624.458972035934</v>
+        <v>1710.810734718861</v>
       </c>
       <c r="D8" t="n">
-        <v>1219.995042128995</v>
+        <v>1306.346804811922</v>
       </c>
       <c r="E8" t="n">
-        <v>805.6548266458916</v>
+        <v>892.0065893288184</v>
       </c>
       <c r="F8" t="n">
-        <v>384.6244145995792</v>
+        <v>470.976177282506</v>
       </c>
       <c r="G8" t="n">
-        <v>384.6244145995792</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L8" t="n">
-        <v>1324.466818148575</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M8" t="n">
-        <v>2100.785409140329</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N8" t="n">
-        <v>2853.966425778947</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O8" t="n">
-        <v>3156.639163445705</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P8" t="n">
         <v>3685.795861364857</v>
@@ -4831,25 +4831,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>3685.795861364857</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V8" t="n">
-        <v>3630.145114134943</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="W8" t="n">
-        <v>3246.384813270111</v>
+        <v>2932.09317812199</v>
       </c>
       <c r="X8" t="n">
-        <v>2845.741415439064</v>
+        <v>2932.09317812199</v>
       </c>
       <c r="Y8" t="n">
-        <v>2444.804742387154</v>
+        <v>2531.15650507008</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>266.5287747899304</v>
       </c>
       <c r="K9" t="n">
-        <v>266.5287747899304</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L9" t="n">
-        <v>266.5287747899304</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M9" t="n">
-        <v>1109.505855484497</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="N9" t="n">
-        <v>1983.163947596115</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="O9" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="P9" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q9" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R9" t="n">
         <v>2120.205113077797</v>
@@ -4986,25 +4986,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.450327403457</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T10" t="n">
-        <v>1091.901588380159</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U10" t="n">
-        <v>809.1034409262836</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V10" t="n">
-        <v>535.2176958658056</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="W10" t="n">
-        <v>256.1480313746799</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X10" t="n">
-        <v>73.71591722729714</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y10" t="n">
         <v>73.71591722729714</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1740.396755289059</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C11" t="n">
-        <v>1330.272164602329</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D11" t="n">
-        <v>925.8082346953897</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E11" t="n">
-        <v>511.4680192122864</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F11" t="n">
-        <v>90.43760716597399</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G11" t="n">
         <v>73.71591722729714</v>
@@ -5041,22 +5041,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>1324.466818148575</v>
+        <v>1512.66539731738</v>
       </c>
       <c r="M11" t="n">
-        <v>2100.785409140329</v>
+        <v>2288.983988309134</v>
       </c>
       <c r="N11" t="n">
-        <v>2853.966425778947</v>
+        <v>3042.165004947752</v>
       </c>
       <c r="O11" t="n">
-        <v>3497.597282196052</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P11" t="n">
         <v>3685.795861364857</v>
@@ -5077,16 +5077,16 @@
         <v>3685.795861364857</v>
       </c>
       <c r="V11" t="n">
-        <v>3335.958306701338</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W11" t="n">
-        <v>2952.198005836506</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X11" t="n">
-        <v>2551.554608005459</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y11" t="n">
-        <v>2150.617934953549</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>73.71591722729714</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L12" t="n">
-        <v>73.71591722729714</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M12" t="n">
-        <v>542.5899304202851</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="N12" t="n">
-        <v>1416.248022531903</v>
+        <v>1386.688503169273</v>
       </c>
       <c r="O12" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="P12" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q12" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R12" t="n">
         <v>2120.205113077797</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
         <v>73.71591722729714</v>
@@ -5223,28 +5223,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1517.842095523547</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>1517.842095523547</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>1517.842095523547</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>1517.842095523547</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>1517.842095523547</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1350.749473922478</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2132.40334945755</v>
+        <v>1893.557443213059</v>
       </c>
       <c r="C14" t="n">
-        <v>1722.27875877082</v>
+        <v>1893.557443213059</v>
       </c>
       <c r="D14" t="n">
-        <v>1317.814828863881</v>
+        <v>1489.093513306119</v>
       </c>
       <c r="E14" t="n">
-        <v>903.4746133807774</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F14" t="n">
-        <v>482.444201334465</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G14" t="n">
-        <v>73.71591722729714</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H14" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I14" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K14" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L14" t="n">
-        <v>1324.466818148575</v>
+        <v>1512.66539731738</v>
       </c>
       <c r="M14" t="n">
-        <v>2100.785409140329</v>
+        <v>2288.983988309134</v>
       </c>
       <c r="N14" t="n">
-        <v>2513.0083070286</v>
+        <v>3042.165004947752</v>
       </c>
       <c r="O14" t="n">
-        <v>3156.639163445705</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P14" t="n">
         <v>3685.795861364857</v>
@@ -5311,19 +5311,19 @@
         <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>3685.795861364857</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V14" t="n">
-        <v>3685.795861364857</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W14" t="n">
-        <v>3344.204600004997</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X14" t="n">
-        <v>2943.561202173949</v>
+        <v>2294.494116264969</v>
       </c>
       <c r="Y14" t="n">
-        <v>2542.624529122039</v>
+        <v>1893.557443213059</v>
       </c>
     </row>
     <row r="15">
@@ -5363,13 +5363,13 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>73.71591722729714</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M15" t="n">
-        <v>916.6929979218638</v>
+        <v>1577.781169841152</v>
       </c>
       <c r="N15" t="n">
-        <v>1386.688503169273</v>
+        <v>1577.781169841152</v>
       </c>
       <c r="O15" t="n">
         <v>2090.645593715167</v>
@@ -5460,28 +5460,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>809.1034409262836</v>
+        <v>1277.450593924497</v>
       </c>
       <c r="V16" t="n">
-        <v>535.2176958658056</v>
+        <v>1003.564848864019</v>
       </c>
       <c r="W16" t="n">
-        <v>256.1480313746799</v>
+        <v>724.4951843728934</v>
       </c>
       <c r="X16" t="n">
-        <v>73.71591722729714</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.71591722729714</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D17" t="n">
         <v>1648.251106699488</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5548,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V17" t="n">
-        <v>4047.636833531609</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X17" t="n">
-        <v>3273.997480009557</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>549.5615568984836</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>549.5615568984836</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>549.5615568984836</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>549.5615568984836</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>828.6312213896092</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>549.5615568984836</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>549.5615568984836</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>549.5615568984836</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5843,7 +5843,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>691.8672272829849</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>520.7738548447014</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>361.2792101676114</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>361.2792101676114</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>196.6480842782027</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>196.6480842782027</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U22" t="n">
-        <v>1153.452678737507</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>879.5669336770293</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>879.5669336770293</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>879.5669336770293</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>879.5669336770293</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -6022,13 +6022,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
         <v>3273.997480009557</v>
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.6240469015422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>745.5306744632587</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1436.250826191383</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>1436.250826191383</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>1197.906964051067</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>1104.323753295587</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C27" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D27" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E27" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H27" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L27" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M27" t="n">
-        <v>3458.672769375206</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N27" t="n">
-        <v>4332.330861486824</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O27" t="n">
-        <v>4662.18488453114</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S27" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T27" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U27" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V27" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W27" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X27" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y27" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>692.7936626747511</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>521.7002902364676</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>362.2056455593776</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>201.2948304276971</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
         <v>93.2436976906228</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>1343.572929820347</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>1105.229067680031</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>880.4933690687955</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
         <v>1320.262653899312</v>
@@ -6499,16 +6499,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6645,25 +6645,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1593.281623979807</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1406.889855859717</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1167.341116836419</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>884.5429693825431</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>610.6572243220651</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>331.5875598309394</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
         <v>93.2436976906228</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>899.2322418529996</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1348.756849250995</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1074.610981951593</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>836.267119811276</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>611.5314212000407</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6970,19 +6970,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4164.476761201259</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3993.383388762976</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3833.888744085886</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3672.977928954205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3508.346803064796</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3341.09641199034</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4576.912166206539</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4576.912166206539</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4576.912166206539</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>4576.912166206539</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>4576.912166206539</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>4352.176467595304</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7256,25 +7256,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>494.6659264600851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>494.6659264600851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1296.978374387823</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1023.092629327345</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>744.0229648362191</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>505.6791026959025</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>280.9434040846672</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2132.40334945755</v>
+        <v>2218.755112140477</v>
       </c>
       <c r="C41" t="n">
-        <v>1722.27875877082</v>
+        <v>1808.630521453747</v>
       </c>
       <c r="D41" t="n">
-        <v>1317.814828863881</v>
+        <v>1404.166591546807</v>
       </c>
       <c r="E41" t="n">
-        <v>903.4746133807774</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="F41" t="n">
-        <v>482.444201334465</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="G41" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H41" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I41" t="n">
         <v>73.71591722729714</v>
@@ -7426,13 +7426,13 @@
         <v>3108.151897246701</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.239215675292</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="P41" t="n">
-        <v>3645.239215675292</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q41" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
         <v>3685.795861364857</v>
@@ -7450,13 +7450,13 @@
         <v>3685.795861364857</v>
       </c>
       <c r="W41" t="n">
-        <v>3344.204600004997</v>
+        <v>3430.556362687924</v>
       </c>
       <c r="X41" t="n">
-        <v>2943.561202173949</v>
+        <v>3029.912964856876</v>
       </c>
       <c r="Y41" t="n">
-        <v>2542.624529122039</v>
+        <v>2628.976291804966</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>529.5221734925958</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L42" t="n">
-        <v>1190.610345411884</v>
+        <v>1246.547020966179</v>
       </c>
       <c r="M42" t="n">
-        <v>2033.587426106451</v>
+        <v>1246.547020966179</v>
       </c>
       <c r="N42" t="n">
         <v>2120.205113077797</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2975.749268493639</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>2804.655896055355</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2645.161251378265</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2484.250436246585</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2319.619310357176</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.19299859201</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.03178098626</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3446.247122341559</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>3163.448974887683</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>3163.448974887683</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>3163.448974887683</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>3163.448974887683</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>3163.448974887683</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1296.470519235758</v>
+        <v>2218.755112140477</v>
       </c>
       <c r="C44" t="n">
-        <v>1296.470519235758</v>
+        <v>1808.630521453747</v>
       </c>
       <c r="D44" t="n">
-        <v>892.0065893288184</v>
+        <v>1404.166591546807</v>
       </c>
       <c r="E44" t="n">
-        <v>892.0065893288184</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="F44" t="n">
-        <v>470.976177282506</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="G44" t="n">
-        <v>470.976177282506</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H44" t="n">
         <v>160.067679910224</v>
@@ -7648,28 +7648,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>270.9172995859905</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>983.5086993982285</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="M44" t="n">
-        <v>1759.827290389982</v>
+        <v>1642.379480795845</v>
       </c>
       <c r="N44" t="n">
-        <v>2513.0083070286</v>
+        <v>2395.560497434463</v>
       </c>
       <c r="O44" t="n">
-        <v>3156.639163445705</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P44" t="n">
-        <v>3685.795861364857</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q44" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R44" t="n">
         <v>3685.795861364857</v>
@@ -7678,22 +7678,22 @@
         <v>3550.514786158958</v>
       </c>
       <c r="T44" t="n">
-        <v>3328.308302105817</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U44" t="n">
-        <v>3071.247810365327</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V44" t="n">
-        <v>2721.410255701808</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="W44" t="n">
-        <v>2337.649954836976</v>
+        <v>3430.556362687924</v>
       </c>
       <c r="X44" t="n">
-        <v>1937.006557005929</v>
+        <v>3029.912964856876</v>
       </c>
       <c r="Y44" t="n">
-        <v>1536.069883954019</v>
+        <v>2628.976291804966</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>529.5221734925958</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>684.8411284776494</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M45" t="n">
-        <v>684.8411284776494</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.499220589267</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O45" t="n">
-        <v>1558.499220589267</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P45" t="n">
         <v>2120.205113077797</v>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L2" t="n">
         <v>815.2746908024792</v>
@@ -7996,13 +7996,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>529.6250836046478</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8066,16 +8066,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>846.2776300172815</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O3" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
@@ -8230,16 +8230,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>609.4760590289834</v>
+        <v>529.6250836046478</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8303,16 +8303,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>527.8697493391553</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8467,10 +8467,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>398.9198136730141</v>
+        <v>676.6685272602841</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8534,19 +8534,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>196.176898678467</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8555,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>748.6212642378845</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8707,7 +8707,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>283.7489381988693</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8771,16 +8771,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747689</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>919.017968824737</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>748.6212642378845</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>509.2990563003282</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9011,16 +9011,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>527.9363279870926</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>575.7963516000154</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
@@ -9251,22 +9251,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>664.4325518582177</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9491,10 +9491,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
@@ -9962,16 +9962,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>647.1462774881364</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
@@ -10199,16 +10199,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>647.1462774881364</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10664,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>616.6125049502444</v>
       </c>
       <c r="M36" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10843,10 +10843,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>268.280820310972</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>635.7022184829458</v>
+        <v>352.2634698913023</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>585.6215843269604</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>140.6860064961202</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>288.3297051870488</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11311,16 +11311,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>496.5847387837485</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>213.002357129085</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>181.6512841219723</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.5430560802946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,19 +22758,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879882</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.38802852210824</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22840,16 +22840,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>203.4114229270816</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.7553487017543</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22995,10 +22995,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.83325373133681</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>291.2449393592692</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>242.1596119352796</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>193.4209809967732</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>388.086528226806</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23317,10 +23317,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.06664624006473</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>223.7217598568404</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>41.74734910992146</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>194.7158398879882</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>10.65670172208877</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>140.1019872577596</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>54.06597461814459</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>45.7410379208938</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24177,10 +24177,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24262,7 +24262,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>3.083197172522944</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24414,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.8409629771978</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>56.01419322081109</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24654,13 +24654,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>4.874559219805974</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861982</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>57.06664624006515</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>135.21231289338</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25560,7 +25560,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -25599,13 +25599,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>142.0904386938125</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>41.74734910992146</v>
+        <v>127.2355941660193</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>3.987765006675431</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>168.9155967967663</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>261.1638586198593</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>629866.0521252793</v>
+        <v>629866.0521252796</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>629866.0521252793</v>
+        <v>629866.0521252796</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724121.668837734</v>
+        <v>724121.6688377343</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>724121.668837734</v>
+        <v>724121.6688377343</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>724121.668837734</v>
+        <v>724121.6688377343</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>724121.6688377341</v>
+        <v>724121.6688377343</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724121.6688377341</v>
+        <v>724121.6688377343</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>629866.0521252793</v>
+        <v>629866.0521252794</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>629866.0521252794</v>
+        <v>629866.0521252796</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>251946.420850112</v>
       </c>
       <c r="C2" t="n">
-        <v>251946.4208501119</v>
+        <v>251946.420850112</v>
       </c>
       <c r="D2" t="n">
         <v>251946.420850112</v>
       </c>
       <c r="E2" t="n">
+        <v>251946.420850112</v>
+      </c>
+      <c r="F2" t="n">
         <v>251946.4208501119</v>
-      </c>
-      <c r="F2" t="n">
-        <v>251946.420850112</v>
       </c>
       <c r="G2" t="n">
         <v>289648.6675350938</v>
@@ -26334,7 +26334,7 @@
         <v>289648.6675350938</v>
       </c>
       <c r="I2" t="n">
-        <v>289648.6675350938</v>
+        <v>289648.6675350937</v>
       </c>
       <c r="J2" t="n">
         <v>289648.6675350938</v>
@@ -26343,13 +26343,13 @@
         <v>289648.6675350937</v>
       </c>
       <c r="L2" t="n">
-        <v>289648.6675350937</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="M2" t="n">
-        <v>289648.6675350939</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="N2" t="n">
-        <v>289648.667535094</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="O2" t="n">
         <v>251946.420850112</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>622.7246651156233</v>
+        <v>622.7246651156231</v>
       </c>
       <c r="C4" t="n">
         <v>622.7246651156232</v>
@@ -26441,10 +26441,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="L4" t="n">
         <v>738.1279301446466</v>
@@ -26453,13 +26453,13 @@
         <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
         <v>622.7246651156232</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7246651156232</v>
+        <v>622.7246651156233</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147126.7425197932</v>
+        <v>-147495.8343458672</v>
       </c>
       <c r="C6" t="n">
-        <v>161671.9990922505</v>
+        <v>161302.9072661766</v>
       </c>
       <c r="D6" t="n">
-        <v>161671.9990922505</v>
+        <v>161302.9072661766</v>
       </c>
       <c r="E6" t="n">
-        <v>195299.5990922505</v>
+        <v>194930.5072661765</v>
       </c>
       <c r="F6" t="n">
-        <v>195299.5990922506</v>
+        <v>194930.5072661765</v>
       </c>
       <c r="G6" t="n">
-        <v>151141.9330064433</v>
+        <v>150961.3524137941</v>
       </c>
       <c r="H6" t="n">
-        <v>218045.3293600759</v>
+        <v>217864.7487674268</v>
       </c>
       <c r="I6" t="n">
-        <v>218045.3293600758</v>
+        <v>217864.7487674267</v>
       </c>
       <c r="J6" t="n">
-        <v>-23046.26372766081</v>
+        <v>-23226.84432030995</v>
       </c>
       <c r="K6" t="n">
-        <v>218045.3293600758</v>
+        <v>217864.7487674267</v>
       </c>
       <c r="L6" t="n">
-        <v>218045.3293600758</v>
+        <v>217864.7487674267</v>
       </c>
       <c r="M6" t="n">
-        <v>218045.3293600759</v>
+        <v>217864.7487674268</v>
       </c>
       <c r="N6" t="n">
-        <v>218045.329360076</v>
+        <v>217864.7487674268</v>
       </c>
       <c r="O6" t="n">
-        <v>195299.5990922505</v>
+        <v>194930.5072661766</v>
       </c>
       <c r="P6" t="n">
-        <v>195299.5990922506</v>
+        <v>194930.5072661766</v>
       </c>
     </row>
   </sheetData>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L2" t="n">
         <v>719.7892927396343</v>
@@ -34716,13 +34716,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>435.9757203237636</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>788.713346278864</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O3" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
@@ -34950,16 +34950,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>515.8266957480993</v>
+        <v>435.9757203237636</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35187,10 +35187,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>305.7300380472309</v>
+        <v>583.478751634501</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>138.425419678467</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396343</v>
+        <v>653.1358661750396</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35427,7 +35427,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>190.0995749179851</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>865.824575430987</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>653.1358661750396</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>416.3867655437089</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>474.7429345933426</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>518.0448726000154</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>606.6810728582177</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
         <v>650.1321781990958</v>
@@ -36211,10 +36211,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>593.9528840943865</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>593.9528840943865</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="M36" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>210.7165365725546</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>542.5124428571627</v>
+        <v>259.0736942655192</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>87.49261310237023</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>199.1933155138316</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38031,16 +38031,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>403.3949631579654</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>156.8878333182359</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
